--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/643ee9276ac5d6ff/Desktop/git/holidays_work/updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{90C8787E-8D7A-4907-9DF4-E58486CDBE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A49E870C-2691-4459-8493-C55796A1D6BE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{90C8787E-8D7A-4907-9DF4-E58486CDBE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7887E14E-E499-4B12-BE6C-773E93F81CFF}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="996" windowWidth="17952" windowHeight="11244" xr2:uid="{8153B31C-48B3-4F54-9576-3FAC4AD54218}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>20-6-22</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>3qsns</t>
+  </si>
+  <si>
+    <t>29-6-22</t>
+  </si>
+  <si>
+    <t>1 qsn</t>
+  </si>
+  <si>
+    <t>30-6-22</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28A162A-9409-4AD2-BDC0-146A2A2C5A17}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,6 +501,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
